--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -38285,7 +38285,7 @@
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>CJ단독/NO.1크림] 캐롤프랑크 이드라덤 크림 3통 + 아로마에센스</t>
+          <t>캐롤프랑크 뿌리는 크림 5개 + 에센셜오일 기획구성</t>
         </is>
       </c>
     </row>
@@ -38307,7 +38307,7 @@
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>캐롤프랑크 뿌리는 크림 5개 + 에센셜오일 기획구성</t>
+          <t>CJ단독/NO.1크림] 캐롤프랑크 이드라덤 크림 3통 + 아로마에센스</t>
         </is>
       </c>
     </row>
@@ -38351,7 +38351,7 @@
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>[캐롤프랑크] 프랑스직수입 뿌리는 크림 6통 특별기획</t>
+          <t>[캐롤프랑크] 뿌리는 크림 5개 + 에센셜오일 타임찬스 특별기획</t>
         </is>
       </c>
     </row>
@@ -38373,7 +38373,7 @@
       </c>
       <c r="D1698" t="inlineStr">
         <is>
-          <t>[캐롤프랑크] 뿌리는 크림 5개 + 에센셜오일 타임찬스 특별기획</t>
+          <t>[캐롤프랑크] 프랑스직수입 뿌리는 크림 6통 특별기획</t>
         </is>
       </c>
     </row>
@@ -38483,7 +38483,7 @@
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>[캐롤프랑크]최고가 직수입 스컬토발 세럼 1병 단품</t>
+          <t>VVIP패키지/특집구성] 캐롤프랑크 세럼 6개 + 중용량 8개</t>
         </is>
       </c>
     </row>
@@ -38505,7 +38505,7 @@
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>VVIP패키지/특집구성] 캐롤프랑크 세럼 6개 + 중용량 8개</t>
+          <t>[캐롤프랑크]최고가 직수입 스컬토발 세럼 1병 단품</t>
         </is>
       </c>
     </row>
@@ -38527,7 +38527,7 @@
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>[캐롤프랑크] 프랑스직수입 모공관리 액티브 세럼 3개 +중용량2</t>
+          <t>[캐롤프랑크] 직수입 액티브 세럼 5개 +케어시트 +블랙파우치</t>
         </is>
       </c>
     </row>
@@ -38571,7 +38571,7 @@
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>[캐롤프랑크] 직수입 액티브 세럼 5개 +케어시트 +블랙파우치</t>
+          <t>[캐롤프랑크] 프랑스직수입 모공관리 액티브 세럼 3개 +중용량2</t>
         </is>
       </c>
     </row>
@@ -38593,7 +38593,7 @@
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>VVIP매니아패키지] 캐롤프랑크 이드라덤 크림 6통 +아로마에센스</t>
+          <t>프랑스직수입] 캐롤프랑크 뿌리는크림 10통 특별기획 패키지</t>
         </is>
       </c>
     </row>
@@ -38615,7 +38615,7 @@
       </c>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>프랑스직수입] 캐롤프랑크 뿌리는크림 10통 특별기획 패키지</t>
+          <t>VVIP매니아패키지] 캐롤프랑크 이드라덤 크림 6통 +아로마에센스</t>
         </is>
       </c>
     </row>
@@ -41717,7 +41717,7 @@
       </c>
       <c r="D1850" t="inlineStr">
         <is>
-          <t>[테라픽 실속세트] 두피세럼 대용량3개+30ml키트1개</t>
+          <t>뷰로웰 1분 브러쉬 염색제 본품 1개</t>
         </is>
       </c>
     </row>
@@ -41739,7 +41739,7 @@
       </c>
       <c r="D1851" t="inlineStr">
         <is>
-          <t>[사전공구]뷰로웰 1분 브러쉬 염색제 세트</t>
+          <t>[CJ단독]라라츄 텐션쿠션 본품3개+리필3개+퍼프3개+틴트1개</t>
         </is>
       </c>
     </row>
@@ -41761,7 +41761,7 @@
       </c>
       <c r="D1852" t="inlineStr">
         <is>
-          <t>마티덤 최신상 스킨컴플렉스 어드밴스드 앰플 10개입 + 20개입</t>
+          <t>[테라픽 실속세트] 두피세럼 대용량3개+30ml키트1개</t>
         </is>
       </c>
     </row>
@@ -41783,7 +41783,7 @@
       </c>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>[봄신상] 데싱디바 20SS 소프트 샤인 컬렉션</t>
+          <t>[사전공구]뷰로웰 1분 브러쉬 염색제 세트</t>
         </is>
       </c>
     </row>
@@ -41805,7 +41805,7 @@
       </c>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>[CJ단독]라라츄 텐션쿠션 본품3개+리필3개+퍼프3개+틴트1개</t>
+          <t>[봄신상] 데싱디바 20SS 소프트 샤인 컬렉션</t>
         </is>
       </c>
     </row>
@@ -41827,7 +41827,7 @@
       </c>
       <c r="D1855" t="inlineStr">
         <is>
-          <t>뷰로웰 1분 브러쉬 염색제 본품 1개</t>
+          <t>마티덤 최신상 스킨컴플렉스 어드밴스드 앰플 10개입 + 20개입</t>
         </is>
       </c>
     </row>
@@ -41849,7 +41849,7 @@
       </c>
       <c r="D1856" t="inlineStr">
         <is>
-          <t>마티덤 브라이트닝 프로그램/포토에이지HA+10병 DSP브라이트30병</t>
+          <t>[실속패키지]라라츄 텐션쿠션 본품1개+리필2개+퍼프3개</t>
         </is>
       </c>
     </row>
@@ -41871,7 +41871,7 @@
       </c>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>[실속패키지]라라츄 텐션쿠션 본품1개+리필2개+퍼프3개</t>
+          <t>[대용량구성]뷰로웰 1분 브러쉬 염색제 구성</t>
         </is>
       </c>
     </row>
@@ -41893,7 +41893,7 @@
       </c>
       <c r="D1858" t="inlineStr">
         <is>
-          <t>[단품]뷰로웰 1분 브러쉬 염색제 리필 1개</t>
+          <t>마티덤 브라이트닝 프로그램/포토에이지HA+10병 DSP브라이트30병</t>
         </is>
       </c>
     </row>
@@ -41915,7 +41915,7 @@
       </c>
       <c r="D1859" t="inlineStr">
         <is>
-          <t>[대용량구성]뷰로웰 1분 브러쉬 염색제 구성</t>
+          <t>[단품]뷰로웰 1분 브러쉬 염색제 리필 1개</t>
         </is>
       </c>
     </row>
@@ -41937,7 +41937,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[니콜로지]프랑스직수입 100%자연유래 디퓨져 신규향 한정패키지</t>
+          <t>뷰로웰 1분 브러쉬 염색제 세트 본품2개+리필2개+전체용2개</t>
         </is>
       </c>
     </row>
@@ -41959,7 +41959,7 @@
       </c>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>[기획행사]라라츄 헤어쿠션 본품4+리필6+미니2+마스크팩10매</t>
+          <t>[슬림구성]테라픽 두피세럼 본품6병</t>
         </is>
       </c>
     </row>
@@ -41981,7 +41981,7 @@
       </c>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>뷰로웰 1분 브러쉬 염색제 세트 본품2개+리필2개+전체용2개</t>
+          <t>[니콜로지]프랑스직수입 100%자연유래 디퓨져 신규향 한정패키지</t>
         </is>
       </c>
     </row>
@@ -42003,7 +42003,7 @@
       </c>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>[슬림구성]테라픽 두피세럼 본품6병</t>
+          <t>[기획행사]라라츄 헤어쿠션 본품4+리필6+미니2+마스크팩10매</t>
         </is>
       </c>
     </row>
@@ -42025,7 +42025,7 @@
       </c>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>[기획행사]라라츄 헤어쿠션 본품+리필+미니+퍼프 2개</t>
+          <t>[기본]NEW 더마픽스 100% 리얼 콜라겐 앰플+LED거울1+크림1</t>
         </is>
       </c>
     </row>
@@ -42047,7 +42047,7 @@
       </c>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>뷰로웰 1분 브러쉬 염색제 세트 본품4개+리필8개</t>
+          <t>[슬림구성] 테라픽 헤어팩 대용량 5개+체험분</t>
         </is>
       </c>
     </row>
@@ -42069,7 +42069,7 @@
       </c>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>[기존가300,000]이오시카 레이저제모기 SIPL-1000S/100만회+하드케이스</t>
+          <t>매진임박/CJ단독]스페인 1등 마티덤 최신상 포토에이지 HA+ 앰플</t>
         </is>
       </c>
     </row>
@@ -42091,7 +42091,7 @@
       </c>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>[슬림구성] 테라픽 헤어팩 대용량 5개+체험분</t>
+          <t>[기획행사]라라츄 헤어쿠션 본품+리필+미니+퍼프 2개</t>
         </is>
       </c>
     </row>
@@ -42113,7 +42113,7 @@
       </c>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>매진임박/CJ단독]스페인 1등 마티덤 최신상 포토에이지 HA+ 앰플</t>
+          <t>[테라픽] 노워시 헤어팩 대용량 2EA + 중용량 2EA</t>
         </is>
       </c>
     </row>
@@ -42135,7 +42135,7 @@
       </c>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>[기본]NEW 더마픽스 100% 리얼 콜라겐 앰플+LED거울1+크림1</t>
+          <t>뷰로웰 1분 브러쉬 염색제 세트 본품4개+리필8개</t>
         </is>
       </c>
     </row>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>[테라픽] 노워시 헤어팩 대용량 2EA + 중용량 2EA</t>
+          <t>[기존가300,000]이오시카 레이저제모기 SIPL-1000S/100만회+하드케이스</t>
         </is>
       </c>
     </row>
@@ -42223,7 +42223,7 @@
       </c>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>뷰로웰 1분 브러쉬 염색제 세트 본품+리필2개+전체용1개</t>
+          <t>[테라픽] 노워시 헤어팩 대용량 1EA + 두피세럼 1EA</t>
         </is>
       </c>
     </row>
@@ -42245,7 +42245,7 @@
       </c>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>[기존가220,000]이오시카 레이저 제모기 SIPL-1000B/50만회+콜드바</t>
+          <t>뷰로웰 1분 브러쉬 염색제 세트 본품+리필2개+전체용1개</t>
         </is>
       </c>
     </row>
@@ -42267,7 +42267,7 @@
       </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>[테라픽] 노워시 헤어팩 대용량 1EA + 두피세럼 1EA</t>
+          <t>[기존가220,000]이오시카 레이저 제모기 SIPL-1000B/50만회+콜드바</t>
         </is>
       </c>
     </row>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>[리필최다]라라츄 헤어쿠션 마스터 본품4+리필6+속볼륨가발2</t>
+          <t>[공구한정가격]퍼스트씨 핑크비타민C세럼 20병+마사지크림+괄사</t>
         </is>
       </c>
     </row>
@@ -42399,7 +42399,7 @@
       </c>
       <c r="D1881" t="inlineStr">
         <is>
-          <t>[공구한정가격]퍼스트씨 핑크비타민C세럼 20병+마사지크림+괄사</t>
+          <t>[새치쏙쏙 1분염색]뷰로웰 1분 브러쉬 염색제 세트</t>
         </is>
       </c>
     </row>
@@ -42421,7 +42421,7 @@
       </c>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>[아이홀 집중관리]더마픽스 생콜라겐 프로그램 52매 최다찬스</t>
+          <t>[리필최다]라라츄 헤어쿠션 마스터 본품4+리필6+속볼륨가발2</t>
         </is>
       </c>
     </row>
@@ -42443,7 +42443,7 @@
       </c>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>[새치쏙쏙 1분염색]뷰로웰 1분 브러쉬 염색제 세트</t>
+          <t>[아이홀 집중관리]더마픽스 생콜라겐 프로그램 52매 최다찬스</t>
         </is>
       </c>
     </row>
@@ -42465,7 +42465,7 @@
       </c>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>[MD추천]2020 최신상 CJ단독 데싱디바 페디 한정판-산토리니</t>
+          <t>[MD강력추천] 김남주의 테라픽 두피세럼 대용량 5개+휴대용3개</t>
         </is>
       </c>
     </row>
@@ -42487,7 +42487,7 @@
       </c>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>[한창서가쏜다] 제너렉스 더마톡스 리프팅 앰플+크림 더블구성</t>
+          <t>[기존가149,000]이오시카 레이저 제모기 SIPL-1000/20만회+5만회 카트리지</t>
         </is>
       </c>
     </row>
@@ -42509,7 +42509,7 @@
       </c>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>요즘뷰티]더마픽스리얼 콜라겐 텐션업 토너1통+패드1통+앰플1통</t>
+          <t>[기획행사]라라츄 헤어쿠션 본품3+미니2+퍼프3+미스트1+마스크5</t>
         </is>
       </c>
     </row>
@@ -42531,7 +42531,7 @@
       </c>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>[MD강력추천] 김남주의 테라픽 두피세럼 대용량 5개+휴대용3개</t>
+          <t>[전고객 페이셜최다]NEW 더마픽스 생콜라겐 프로그램 기본구성</t>
         </is>
       </c>
     </row>
@@ -42553,7 +42553,7 @@
       </c>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>[기존가149,000]이오시카 레이저 제모기 SIPL-1000/20만회+5만회 카트리지</t>
+          <t>요즘뷰티]더마픽스리얼 콜라겐 텐션업 토너1통+패드1통+앰플1통</t>
         </is>
       </c>
     </row>
@@ -42575,7 +42575,7 @@
       </c>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>[기획행사]라라츄 헤어쿠션 본품3+미니2+퍼프3+미스트1+마스크5</t>
+          <t>[한창서가쏜다] 제너렉스 더마톡스 리프팅 앰플+크림 더블구성</t>
         </is>
       </c>
     </row>
@@ -42597,7 +42597,7 @@
       </c>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>[전고객 페이셜최다]NEW 더마픽스 생콜라겐 프로그램 기본구성</t>
+          <t>[MD추천]2020 최신상 CJ단독 데싱디바 페디 한정판-산토리니</t>
         </is>
       </c>
     </row>
@@ -42619,7 +42619,7 @@
       </c>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>[한창서가쏜다] 제너렉스 더마톡스 리프팅 앰플+크림 싱글구성</t>
+          <t>[얼굴용으로만 최다]더마픽스 생콜라겐 프로그램 52매 최다찬스</t>
         </is>
       </c>
     </row>
@@ -42663,7 +42663,7 @@
       </c>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>[얼굴용으로만 최다]더마픽스 생콜라겐 프로그램 52매 최다찬스</t>
+          <t>[CJ단독]더블] 꼬달리 뷰티엘릭시르 대용량4+중용량4</t>
         </is>
       </c>
     </row>
@@ -42685,7 +42685,7 @@
       </c>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>[CJ단독]더블] 꼬달리 뷰티엘릭시르 대용량4+중용량4</t>
+          <t>[한창서가쏜다] 제너렉스 더마톡스 리프팅 앰플+크림 싱글구성</t>
         </is>
       </c>
     </row>
@@ -42729,7 +42729,7 @@
       </c>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>[최신상]퍼스트씨 핑크비타민C세럼 20병+마사지크림+스톤괄사</t>
+          <t>요즘뷰티]더마픽스 리얼 콜라겐 텐션업 앰플크림 1통</t>
         </is>
       </c>
     </row>
@@ -42751,7 +42751,7 @@
       </c>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>요즘뷰티]더마픽스 리얼 콜라겐 텐션업 앰플크림 1통</t>
+          <t>[CJ단독]싱글] 꼬달리 뷰티엘릭시르 대용량2+중용량2</t>
         </is>
       </c>
     </row>
@@ -42773,7 +42773,7 @@
       </c>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>마티덤 포토에이지HA+앰플 20개입 + 스킨컴플렉스 앰플 20개입</t>
+          <t>[최신상]퍼스트씨 핑크비타민C세럼 20병+마사지크림+스톤괄사</t>
         </is>
       </c>
     </row>
@@ -42795,7 +42795,7 @@
       </c>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>[CJ단독]싱글] 꼬달리 뷰티엘릭시르 대용량2+중용량2</t>
+          <t>[최신상]라라츄 헤어쿠션 마스터 본품2+리필3+뽕가발 2피스</t>
         </is>
       </c>
     </row>
@@ -42817,7 +42817,7 @@
       </c>
       <c r="D1900" t="inlineStr">
         <is>
-          <t>[20FW 최신상] 데싱디바 20FW 어텀클로젯 컬렉션</t>
+          <t>[기본]NEW 더마픽스 리얼 콜라겐 100% 앰플 16주+콜라겐 크림1통</t>
         </is>
       </c>
     </row>
@@ -42839,7 +42839,7 @@
       </c>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>[최신상]라라츄 헤어쿠션 마스터 본품2+리필3+뽕가발 2피스</t>
+          <t>마티덤 포토에이지HA+앰플 20개입 + 스킨컴플렉스 앰플 20개입</t>
         </is>
       </c>
     </row>
@@ -42861,7 +42861,7 @@
       </c>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>[기본]NEW 더마픽스 리얼 콜라겐 100% 앰플 16주+콜라겐 크림1통</t>
+          <t>[20FW 최신상] 데싱디바 20FW 어텀클로젯 컬렉션</t>
         </is>
       </c>
     </row>
